--- a/E-OFFICE ENC my version.xlsx
+++ b/E-OFFICE ENC my version.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="438">
   <si>
     <t>Indrajeet</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Chhattisgarh</t>
   </si>
   <si>
-    <t>30-06-2025</t>
-  </si>
-  <si>
     <t>indrajeet.uikey@cg.gov.in</t>
   </si>
   <si>
@@ -47,9 +44,6 @@
     <t>Finance Controllar</t>
   </si>
   <si>
-    <t>31-03-2026</t>
-  </si>
-  <si>
     <t>amitabh.sharma@cg.gov.in</t>
   </si>
   <si>
@@ -62,9 +56,6 @@
     <t>Superintending Engineer</t>
   </si>
   <si>
-    <t>30-06-2026</t>
-  </si>
-  <si>
     <t>shankar.thakur@cg.gov.in</t>
   </si>
   <si>
@@ -74,9 +65,6 @@
     <t>Kujur</t>
   </si>
   <si>
-    <t>30-06-2029</t>
-  </si>
-  <si>
     <t>maxi.kujur@cg.gov.in</t>
   </si>
   <si>
@@ -89,9 +77,6 @@
     <t>Executive Engineer</t>
   </si>
   <si>
-    <t>30-04-2028</t>
-  </si>
-  <si>
     <t>shivram.sindhare@cg.gov.in</t>
   </si>
   <si>
@@ -101,9 +86,6 @@
     <t>Gupta</t>
   </si>
   <si>
-    <t>31-08-2026</t>
-  </si>
-  <si>
     <t>sanjay.gupta@cg.gov.in</t>
   </si>
   <si>
@@ -113,9 +95,6 @@
     <t>Agrawal</t>
   </si>
   <si>
-    <t>31-07-2032</t>
-  </si>
-  <si>
     <t>alokkumar.agrawal@cg.gov.in</t>
   </si>
   <si>
@@ -125,9 +104,6 @@
     <t>Dewangan</t>
   </si>
   <si>
-    <t>30-06-2047</t>
-  </si>
-  <si>
     <t>champatlal.dewangan@cg.gov.in</t>
   </si>
   <si>
@@ -137,18 +113,12 @@
     <t>Tikariha</t>
   </si>
   <si>
-    <t>31-08-2046</t>
-  </si>
-  <si>
     <t>girish.tikariha@cg.gov.in</t>
   </si>
   <si>
     <t>Amrish</t>
   </si>
   <si>
-    <t>31-07-2036</t>
-  </si>
-  <si>
     <t>amrish.gupta@cg.gov.in</t>
   </si>
   <si>
@@ -167,9 +137,6 @@
     <t>Dubey</t>
   </si>
   <si>
-    <t>31-03-2037</t>
-  </si>
-  <si>
     <t>vikaskumar.dubey@cg.gov.in</t>
   </si>
   <si>
@@ -179,9 +146,6 @@
     <t>Bouddh</t>
   </si>
   <si>
-    <t>31-10-2047</t>
-  </si>
-  <si>
     <t>ananyagupta.bouddh@cg.gov.in</t>
   </si>
   <si>
@@ -191,27 +155,18 @@
     <t>Koshale</t>
   </si>
   <si>
-    <t>31-12-2047</t>
-  </si>
-  <si>
     <t>arvindkumar.koshale@cg.gov.in</t>
   </si>
   <si>
     <t>Ankit Kumar</t>
   </si>
   <si>
-    <t>30-09-2054</t>
-  </si>
-  <si>
     <t>ankitkumar.gupta@cg.gov.in</t>
   </si>
   <si>
     <t>Rajesh</t>
   </si>
   <si>
-    <t>31-12-2029</t>
-  </si>
-  <si>
     <t>rajesh.agrawal@cg.gov.in</t>
   </si>
   <si>
@@ -224,9 +179,6 @@
     <t>Assistant Engineer</t>
   </si>
   <si>
-    <t>31-03-2060</t>
-  </si>
-  <si>
     <t>himanshu.sonkar@cg.gov.in</t>
   </si>
   <si>
@@ -236,18 +188,12 @@
     <t>Chandrakar</t>
   </si>
   <si>
-    <t>31-10-2057</t>
-  </si>
-  <si>
     <t>vikas.chandrakar@cg.gov.in</t>
   </si>
   <si>
     <t>Shivanshu Raj</t>
   </si>
   <si>
-    <t>30-04-2059</t>
-  </si>
-  <si>
     <t>shivanshuraj.gupta@cg.gov.in</t>
   </si>
   <si>
@@ -257,18 +203,12 @@
     <t>Ajmeria</t>
   </si>
   <si>
-    <t>28-02-2059</t>
-  </si>
-  <si>
     <t>virendra.ajmeria@cg.gov.in</t>
   </si>
   <si>
     <t>Ankit</t>
   </si>
   <si>
-    <t>31-05-2055</t>
-  </si>
-  <si>
     <t>ankit.sahu@cg.gov.in</t>
   </si>
   <si>
@@ -278,9 +218,6 @@
     <t>Rathore</t>
   </si>
   <si>
-    <t>31-10-2056</t>
-  </si>
-  <si>
     <t>shreya.rathore@cg.gov.in</t>
   </si>
   <si>
@@ -290,9 +227,6 @@
     <t>Verma</t>
   </si>
   <si>
-    <t>30-04-2057</t>
-  </si>
-  <si>
     <t>ekta.verma@cg.gov.in</t>
   </si>
   <si>
@@ -302,9 +236,6 @@
     <t>Patel</t>
   </si>
   <si>
-    <t>30-09-2058</t>
-  </si>
-  <si>
     <t>suman.patel@cg.gov.in</t>
   </si>
   <si>
@@ -314,27 +245,18 @@
     <t>Kuril</t>
   </si>
   <si>
-    <t>31-01-2058</t>
-  </si>
-  <si>
     <t>heena.kuril@cg.gov.in</t>
   </si>
   <si>
     <t>Sushma</t>
   </si>
   <si>
-    <t>30-11-2057</t>
-  </si>
-  <si>
     <t>sushma.sahu@cg.gov.in</t>
   </si>
   <si>
     <t>Shubhangi</t>
   </si>
   <si>
-    <t>31-08-2057</t>
-  </si>
-  <si>
     <t>shubhangi.gupta@cg.gov.in</t>
   </si>
   <si>
@@ -350,9 +272,6 @@
     <t>Karmkar</t>
   </si>
   <si>
-    <t>30-09-2025</t>
-  </si>
-  <si>
     <t>sushilkumar.karmkar@cg.gov.in</t>
   </si>
   <si>
@@ -362,18 +281,12 @@
     <t>Rawte</t>
   </si>
   <si>
-    <t>30-04-2035</t>
-  </si>
-  <si>
     <t>santoshkumar.rawte@cg.gov.in</t>
   </si>
   <si>
     <t>Amit Kumr</t>
   </si>
   <si>
-    <t>31-05-2052</t>
-  </si>
-  <si>
     <t>amitkumr.verma@cg.gov.in</t>
   </si>
   <si>
@@ -383,9 +296,6 @@
     <t>Tiwari</t>
   </si>
   <si>
-    <t>31-03-2029</t>
-  </si>
-  <si>
     <t>brijendrakumar.tiwari@cg.gov.in</t>
   </si>
   <si>
@@ -395,9 +305,6 @@
     <t>Sonkeware</t>
   </si>
   <si>
-    <t>31-01-2053</t>
-  </si>
-  <si>
     <t>devendra.sonkeware@cg.gov.in</t>
   </si>
   <si>
@@ -410,27 +317,18 @@
     <t>Homi</t>
   </si>
   <si>
-    <t>31-05-2057</t>
-  </si>
-  <si>
     <t>homi.sahu@cg.gov.in</t>
   </si>
   <si>
     <t>Mohan</t>
   </si>
   <si>
-    <t>30-04-2056</t>
-  </si>
-  <si>
     <t>Kalash</t>
   </si>
   <si>
     <t>Ramteke</t>
   </si>
   <si>
-    <t>30-09-2059</t>
-  </si>
-  <si>
     <t>kalash.ramteke@cg.gov.in</t>
   </si>
   <si>
@@ -440,9 +338,6 @@
     <t>Painkra</t>
   </si>
   <si>
-    <t>30-11-2060</t>
-  </si>
-  <si>
     <t>kailash.painkra@cg.gov.in</t>
   </si>
   <si>
@@ -452,9 +347,6 @@
     <t>Sudhakar</t>
   </si>
   <si>
-    <t>30-06-2054</t>
-  </si>
-  <si>
     <t>dineshkumar.sudhakar@cg.gov.in</t>
   </si>
   <si>
@@ -464,27 +356,18 @@
     <t>Jangde</t>
   </si>
   <si>
-    <t>30-09-2061</t>
-  </si>
-  <si>
     <t>ajeet.jangde@cg.gov.in</t>
   </si>
   <si>
     <t>Amit Kumar</t>
   </si>
   <si>
-    <t>28-02-2058</t>
-  </si>
-  <si>
     <t>amitkumar.sahu@cg.gov.in</t>
   </si>
   <si>
     <t>Kumar</t>
   </si>
   <si>
-    <t>16-03-1992</t>
-  </si>
-  <si>
     <t>devendra.kumar@cg.gov.in</t>
   </si>
   <si>
@@ -494,9 +377,6 @@
     <t>Maravi</t>
   </si>
   <si>
-    <t>31-03-2061</t>
-  </si>
-  <si>
     <t>deepak.maravi@cg.gov.in</t>
   </si>
   <si>
@@ -521,18 +401,12 @@
     <t xml:space="preserve">Bhaumraj </t>
   </si>
   <si>
-    <t>31-10-2060</t>
-  </si>
-  <si>
     <t>bhaumraj.dewangan@cg.gov.in</t>
   </si>
   <si>
     <t>Tejanshu</t>
   </si>
   <si>
-    <t>31-08-2056</t>
-  </si>
-  <si>
     <t>tejanshu.sahu@cg.gov.in</t>
   </si>
   <si>
@@ -554,9 +428,6 @@
     <t>Assistant Grade-I</t>
   </si>
   <si>
-    <t>30-06-2028</t>
-  </si>
-  <si>
     <t>maheepsingh.gond@cg.gov.in</t>
   </si>
   <si>
@@ -566,9 +437,6 @@
     <t>Sisodiya</t>
   </si>
   <si>
-    <t>28-02-2034</t>
-  </si>
-  <si>
     <t>hemantsingh.sisodiya@cg.gov.in</t>
   </si>
   <si>
@@ -578,9 +446,6 @@
     <t>Mishra</t>
   </si>
   <si>
-    <t>28-02-2029</t>
-  </si>
-  <si>
     <t>kamleshkumar.mishra@cg.gov.in</t>
   </si>
   <si>
@@ -590,9 +455,6 @@
     <t>Panchare</t>
   </si>
   <si>
-    <t>31-12-2030</t>
-  </si>
-  <si>
     <t>murliram.panchare@cg.gov.in</t>
   </si>
   <si>
@@ -602,9 +464,6 @@
     <t>Netam</t>
   </si>
   <si>
-    <t>31-07-2035</t>
-  </si>
-  <si>
     <t>lakhansingh.netam@cg.gov.in</t>
   </si>
   <si>
@@ -626,9 +485,6 @@
     <t>Assistant Grade-II</t>
   </si>
   <si>
-    <t>31-10-2032</t>
-  </si>
-  <si>
     <t>latkhorram.kanwar@cg.gov.in</t>
   </si>
   <si>
@@ -638,9 +494,6 @@
     <t>Kannoje</t>
   </si>
   <si>
-    <t>30-10-2029</t>
-  </si>
-  <si>
     <t>satishkumar.kannoje@cg.gov.in</t>
   </si>
   <si>
@@ -650,9 +503,6 @@
     <t>Singh</t>
   </si>
   <si>
-    <t>31-10-2027</t>
-  </si>
-  <si>
     <t>dhani.singh@cg.gov.in</t>
   </si>
   <si>
@@ -662,18 +512,12 @@
     <t>Diwan</t>
   </si>
   <si>
-    <t>31-08-2027</t>
-  </si>
-  <si>
     <t>khemsingh.diwan@cg.gov.in</t>
   </si>
   <si>
     <t>Bhagwan Singh</t>
   </si>
   <si>
-    <t>30-06-2032</t>
-  </si>
-  <si>
     <t>bhagwansingh.thakur@cg.gov.in</t>
   </si>
   <si>
@@ -683,9 +527,6 @@
     <t>Hedau</t>
   </si>
   <si>
-    <t>31-10-2036</t>
-  </si>
-  <si>
     <t>nareshkumar.hedau@cg.gov.in</t>
   </si>
   <si>
@@ -698,9 +539,6 @@
     <t>Ramesh Kumar</t>
   </si>
   <si>
-    <t>31-12-2025</t>
-  </si>
-  <si>
     <t>rameshkumar.dewangan@cg.gov.in</t>
   </si>
   <si>
@@ -710,9 +548,6 @@
     <t>Chouhan</t>
   </si>
   <si>
-    <t>30-09-2037</t>
-  </si>
-  <si>
     <t>sunilkumar.chouhan@cg.gov.in</t>
   </si>
   <si>
@@ -722,9 +557,6 @@
     <t>Bhagat</t>
   </si>
   <si>
-    <t>31-08-2033</t>
-  </si>
-  <si>
     <t>jagdishram.bhagat@cg.gov.in</t>
   </si>
   <si>
@@ -734,9 +566,6 @@
     <t>Chauhan</t>
   </si>
   <si>
-    <t>31-05-2046</t>
-  </si>
-  <si>
     <t>munendrasingh.chauhan@cg.gov.in</t>
   </si>
   <si>
@@ -746,9 +575,6 @@
     <t>Mandavi</t>
   </si>
   <si>
-    <t>31-12-2032</t>
-  </si>
-  <si>
     <t>rakeshkumar.mandavi@cg.gov.in</t>
   </si>
   <si>
@@ -758,9 +584,6 @@
     <t>Pandram</t>
   </si>
   <si>
-    <t>31-05-2043</t>
-  </si>
-  <si>
     <t>shashi.pandram@cg.gov.in</t>
   </si>
   <si>
@@ -773,18 +596,12 @@
     <t>Assistant Grade-III</t>
   </si>
   <si>
-    <t>30-11-2051</t>
-  </si>
-  <si>
     <t>poshnoul.pathak@cg.gov.in</t>
   </si>
   <si>
     <t>Dhruw</t>
   </si>
   <si>
-    <t>31-08-2037</t>
-  </si>
-  <si>
     <t>santoshkumar.dhruw@cg.gov.in</t>
   </si>
   <si>
@@ -794,9 +611,6 @@
     <t>Meshram</t>
   </si>
   <si>
-    <t>30-06-2042</t>
-  </si>
-  <si>
     <t>karunesh.meshram@cg.gov.in</t>
   </si>
   <si>
@@ -806,9 +620,6 @@
     <t>Betwar</t>
   </si>
   <si>
-    <t>30-04-2038</t>
-  </si>
-  <si>
     <t>deepakkumar.betwar@cg.gov.in</t>
   </si>
   <si>
@@ -830,18 +641,12 @@
     <t>Pranay Prateek</t>
   </si>
   <si>
-    <t>31-01-2050</t>
-  </si>
-  <si>
     <t>pranayprateek.kujur@cg.gov.in</t>
   </si>
   <si>
     <t>Ganeshwari</t>
   </si>
   <si>
-    <t>28-02-2042</t>
-  </si>
-  <si>
     <t>ganeshwari.dhruw@cg.gov.in</t>
   </si>
   <si>
@@ -851,9 +656,6 @@
     <t>Joshi</t>
   </si>
   <si>
-    <t>30-09-2057</t>
-  </si>
-  <si>
     <t>chandrakant.joshi@cg.gov.in</t>
   </si>
   <si>
@@ -863,36 +665,24 @@
     <t>Sub Engineer</t>
   </si>
   <si>
-    <t>30-04-2055</t>
-  </si>
-  <si>
     <t>animesh.pandey@cg.gov.in</t>
   </si>
   <si>
     <t>Girish Kumar</t>
   </si>
   <si>
-    <t>30-11-2054</t>
-  </si>
-  <si>
     <t>girishkumar.dewangan@cg.gov.in</t>
   </si>
   <si>
     <t>Shalini</t>
   </si>
   <si>
-    <t>31-10-2055</t>
-  </si>
-  <si>
     <t>shalini.sahu@cg.gov.in</t>
   </si>
   <si>
     <t>Ghritanchci</t>
   </si>
   <si>
-    <t>31-08-2058</t>
-  </si>
-  <si>
     <t>ghritanchci.chandrakar@cg.gov.in</t>
   </si>
   <si>
@@ -905,18 +695,12 @@
     <t>Draftman</t>
   </si>
   <si>
-    <t>31-03-2025</t>
-  </si>
-  <si>
     <t>rameshwarnath.yadav@cg.gov.in</t>
   </si>
   <si>
     <t>Firangi Lal</t>
   </si>
   <si>
-    <t>30-04-2032</t>
-  </si>
-  <si>
     <t>firangilal.uikey@cg.gov.in</t>
   </si>
   <si>
@@ -926,9 +710,6 @@
     <t>Bawne</t>
   </si>
   <si>
-    <t>31-03-2028</t>
-  </si>
-  <si>
     <t>ganesh.bawne@cg.gov.in</t>
   </si>
   <si>
@@ -938,9 +719,6 @@
     <t>Paikara</t>
   </si>
   <si>
-    <t>31-08-2030</t>
-  </si>
-  <si>
     <t>dileepsingh.paikara@cg.gov.in</t>
   </si>
   <si>
@@ -950,18 +728,12 @@
     <t>Assistant Draftman</t>
   </si>
   <si>
-    <t>31-10-2028</t>
-  </si>
-  <si>
     <t>abhayraj.singh@cg.gov.in</t>
   </si>
   <si>
     <t>Jayant Kumar</t>
   </si>
   <si>
-    <t>31-05-2030</t>
-  </si>
-  <si>
     <t>jayantkumar.yadav@cg.gov.in</t>
   </si>
   <si>
@@ -971,18 +743,12 @@
     <t>Steno Grade-I</t>
   </si>
   <si>
-    <t>31-05-2033</t>
-  </si>
-  <si>
     <t>kaushalsingh.kanwar@cg.gov.in</t>
   </si>
   <si>
     <t>Kumbhare</t>
   </si>
   <si>
-    <t>31-03-2032</t>
-  </si>
-  <si>
     <t>arvindkumar.kumbhare@cg.gov.in</t>
   </si>
   <si>
@@ -1004,9 +770,6 @@
     <t>Harne</t>
   </si>
   <si>
-    <t>30-11-2030</t>
-  </si>
-  <si>
     <t>prakash.harne@cg.gov.in</t>
   </si>
   <si>
@@ -1016,18 +779,12 @@
     <t>Thawre</t>
   </si>
   <si>
-    <t>31-01-2032</t>
-  </si>
-  <si>
     <t>jaykumar.thawre@cg.gov.in</t>
   </si>
   <si>
     <t>Dharmwanshi</t>
   </si>
   <si>
-    <t>31-12-2027</t>
-  </si>
-  <si>
     <t>dineshkumar.dharmwanshi@cg.gov.in</t>
   </si>
   <si>
@@ -1037,9 +794,6 @@
     <t>Daftari</t>
   </si>
   <si>
-    <t>31-07-2030</t>
-  </si>
-  <si>
     <t>bharat.ramteke@cg.gov.in</t>
   </si>
   <si>
@@ -1052,285 +806,6 @@
     <t>mohan.paikra@cg.gov.in</t>
   </si>
   <si>
-    <t>indrajeet.uikey@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>amitabh.sharma@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>shankar.thakur@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>maxi.kujur@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>shivram.sindhare@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>sanjay.gupta@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>alokkumar.agrawal@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>champatlal.dewangan@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>girish.tikariha@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>amrish.gupta@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>ravikant.sahu@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>vikaskumar.dubey@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>ananyagupta.bouddh@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>arvindkumar.koshale@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>ankitkumar.gupta@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>rajesh.agrawal@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>himanshu.sonkar@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>vikas.chandrakar@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>shivanshuraj.gupta@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>virendra.ajmeria@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>ankit.sahu@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>shreya.rathore@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>ekta.verma@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>suman.patel@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>heena.kuril@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>sushma.sahu@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>shubhangi.gupta@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>vijaykumar.dewangan@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>sushilkumar.karmkar@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>santoshkumar.rawte@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>amitkumr.verma@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>brijendrakumar.tiwari@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>devendra.sonkeware@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>neerajsingh.thakur@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>homi.sahu@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>mohan.paikra@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>kalash.ramteke@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>kailash.painkra@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>dineshkumar.sudhakar@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>ajeet.jangde@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>amitkumar.sahu@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>devendra.kumar@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>deepak.maravi@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>tushit.pandey@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>aaditya.bhattacharya@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>bhaumraj.dewangan@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>tejanshu.sahu@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>praveen.kindo@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>maheepsingh.gond@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>hemantsingh.sisodiya@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>kamleshkumar.mishra@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>murliram.panchare@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>lakhansingh.netam@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>bhishamsingh.maithil@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>latkhorram.kanwar@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>satishkumar.kannoje@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>dhani.singh@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>khemsingh.diwan@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>bhagwansingh.thakur@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>nareshkumar.hedau@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>alisha.kujur@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>rameshkumar.dewangan@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>sunilkumar.chouhan@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>jagdishram.bhagat@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>munendrasingh.chauhan@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>rakeshkumar.mandavi@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>shashi.pandram@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>poshnoul.pathak@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>santoshkumar.dhruw@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>karunesh.meshram@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>deepakkumar.betwar@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>bhaleria.ekka@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>yuvraj.sharma@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>pranayprateek.kujur@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>ganeshwari.dhruw@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>chandrakant.joshi@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>animesh.pandey@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>girishkumar.dewangan@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>shalini.sahu@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>ghritanchci.chandrakar@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>rameshwarnath.yadav@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>firangilal.uikey@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>ganesh.bawne@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>dileepsingh.paikara@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>abhayraj.singh@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>jayantkumar.yadav@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>kaushalsingh.kanwar@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>arvindkumar.kumbhare@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>bharatsingh.dhurwey@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>prakash.harne@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>jaykumar.thawre@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>dineshkumar.dharmwanshi@$cg.gov.in</t>
-  </si>
-  <si>
-    <t>bharat.ramteke@$cg.gov.in</t>
-  </si>
-  <si>
     <t>indrajeet.uikey</t>
   </si>
   <si>
@@ -1608,6 +1083,252 @@
   </si>
   <si>
     <t>bharat.ramteke</t>
+  </si>
+  <si>
+    <t>30/06/2025</t>
+  </si>
+  <si>
+    <t>31/03/2026</t>
+  </si>
+  <si>
+    <t>30/06/2026</t>
+  </si>
+  <si>
+    <t>30/06/2029</t>
+  </si>
+  <si>
+    <t>30/04/2028</t>
+  </si>
+  <si>
+    <t>31/08/2026</t>
+  </si>
+  <si>
+    <t>31/07/2032</t>
+  </si>
+  <si>
+    <t>30/06/2047</t>
+  </si>
+  <si>
+    <t>31/08/2046</t>
+  </si>
+  <si>
+    <t>31/07/2036</t>
+  </si>
+  <si>
+    <t>31/03/2037</t>
+  </si>
+  <si>
+    <t>31/10/2047</t>
+  </si>
+  <si>
+    <t>31/12/2047</t>
+  </si>
+  <si>
+    <t>30/09/2054</t>
+  </si>
+  <si>
+    <t>31/12/2029</t>
+  </si>
+  <si>
+    <t>31/03/2060</t>
+  </si>
+  <si>
+    <t>31/10/2057</t>
+  </si>
+  <si>
+    <t>30/04/2059</t>
+  </si>
+  <si>
+    <t>28/02/2059</t>
+  </si>
+  <si>
+    <t>31/05/2055</t>
+  </si>
+  <si>
+    <t>31/10/2056</t>
+  </si>
+  <si>
+    <t>30/04/2057</t>
+  </si>
+  <si>
+    <t>30/09/2058</t>
+  </si>
+  <si>
+    <t>31/01/2058</t>
+  </si>
+  <si>
+    <t>30/11/2057</t>
+  </si>
+  <si>
+    <t>31/08/2057</t>
+  </si>
+  <si>
+    <t>30/09/2025</t>
+  </si>
+  <si>
+    <t>30/04/2035</t>
+  </si>
+  <si>
+    <t>31/05/2052</t>
+  </si>
+  <si>
+    <t>31/03/2029</t>
+  </si>
+  <si>
+    <t>31/01/2053</t>
+  </si>
+  <si>
+    <t>31/05/2057</t>
+  </si>
+  <si>
+    <t>30/04/2056</t>
+  </si>
+  <si>
+    <t>30/09/2059</t>
+  </si>
+  <si>
+    <t>30/11/2060</t>
+  </si>
+  <si>
+    <t>30/06/2054</t>
+  </si>
+  <si>
+    <t>30/09/2061</t>
+  </si>
+  <si>
+    <t>28/02/2058</t>
+  </si>
+  <si>
+    <t>16/03/1992</t>
+  </si>
+  <si>
+    <t>31/03/2061</t>
+  </si>
+  <si>
+    <t>31/10/2060</t>
+  </si>
+  <si>
+    <t>31/08/2056</t>
+  </si>
+  <si>
+    <t>30/06/2028</t>
+  </si>
+  <si>
+    <t>28/02/2034</t>
+  </si>
+  <si>
+    <t>28/02/2029</t>
+  </si>
+  <si>
+    <t>31/12/2030</t>
+  </si>
+  <si>
+    <t>31/07/2035</t>
+  </si>
+  <si>
+    <t>31/10/2032</t>
+  </si>
+  <si>
+    <t>30/10/2029</t>
+  </si>
+  <si>
+    <t>31/10/2027</t>
+  </si>
+  <si>
+    <t>31/08/2027</t>
+  </si>
+  <si>
+    <t>30/06/2032</t>
+  </si>
+  <si>
+    <t>31/10/2036</t>
+  </si>
+  <si>
+    <t>31/12/2025</t>
+  </si>
+  <si>
+    <t>30/09/2037</t>
+  </si>
+  <si>
+    <t>31/08/2033</t>
+  </si>
+  <si>
+    <t>31/05/2046</t>
+  </si>
+  <si>
+    <t>31/12/2032</t>
+  </si>
+  <si>
+    <t>31/05/2043</t>
+  </si>
+  <si>
+    <t>30/11/2051</t>
+  </si>
+  <si>
+    <t>31/08/2037</t>
+  </si>
+  <si>
+    <t>30/06/2042</t>
+  </si>
+  <si>
+    <t>30/04/2038</t>
+  </si>
+  <si>
+    <t>31/01/2050</t>
+  </si>
+  <si>
+    <t>28/02/2042</t>
+  </si>
+  <si>
+    <t>30/09/2057</t>
+  </si>
+  <si>
+    <t>30/04/2055</t>
+  </si>
+  <si>
+    <t>30/11/2054</t>
+  </si>
+  <si>
+    <t>31/10/2055</t>
+  </si>
+  <si>
+    <t>31/08/2058</t>
+  </si>
+  <si>
+    <t>31/03/2025</t>
+  </si>
+  <si>
+    <t>30/04/2032</t>
+  </si>
+  <si>
+    <t>31/03/2028</t>
+  </si>
+  <si>
+    <t>31/08/2030</t>
+  </si>
+  <si>
+    <t>31/10/2028</t>
+  </si>
+  <si>
+    <t>31/05/2030</t>
+  </si>
+  <si>
+    <t>31/05/2033</t>
+  </si>
+  <si>
+    <t>31/03/2032</t>
+  </si>
+  <si>
+    <t>30/11/2030</t>
+  </si>
+  <si>
+    <t>31/01/2032</t>
+  </si>
+  <si>
+    <t>31/12/2027</t>
+  </si>
+  <si>
+    <t>31/07/2030</t>
   </si>
 </sst>
 </file>
@@ -2101,9 +1822,10 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2450,7 +2172,7 @@
   <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I6" sqref="A1:J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2462,7 +2184,7 @@
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2489,25 +2211,25 @@
       <c r="G1">
         <v>8319420650</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>438</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2521,25 +2243,25 @@
       <c r="G2">
         <v>9826414399</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
+      <c r="H2" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="I2" t="s">
-        <v>439</v>
+        <v>264</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2553,25 +2275,25 @@
       <c r="G3">
         <v>9424281778</v>
       </c>
-      <c r="H3" t="s">
-        <v>15</v>
+      <c r="H3" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="I3" t="s">
-        <v>440</v>
+        <v>265</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -2585,25 +2307,25 @@
       <c r="G4">
         <v>9425593428</v>
       </c>
-      <c r="H4" t="s">
-        <v>19</v>
+      <c r="H4" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="I4" t="s">
-        <v>441</v>
+        <v>266</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -2617,25 +2339,25 @@
       <c r="G5">
         <v>9827115879</v>
       </c>
-      <c r="H5" t="s">
-        <v>24</v>
+      <c r="H5" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="I5" t="s">
-        <v>442</v>
+        <v>267</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -2649,25 +2371,25 @@
       <c r="G6">
         <v>9893398244</v>
       </c>
-      <c r="H6" t="s">
-        <v>28</v>
+      <c r="H6" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="I6" t="s">
-        <v>443</v>
+        <v>268</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -2681,25 +2403,25 @@
       <c r="G7">
         <v>9340830289</v>
       </c>
-      <c r="H7" t="s">
-        <v>32</v>
+      <c r="H7" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="I7" t="s">
-        <v>444</v>
+        <v>269</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -2713,25 +2435,25 @@
       <c r="G8">
         <v>9039811391</v>
       </c>
-      <c r="H8" t="s">
-        <v>36</v>
+      <c r="H8" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="I8" t="s">
-        <v>445</v>
+        <v>270</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -2745,25 +2467,25 @@
       <c r="G9">
         <v>9479187678</v>
       </c>
-      <c r="H9" t="s">
-        <v>40</v>
+      <c r="H9" s="2" t="s">
+        <v>364</v>
       </c>
       <c r="I9" t="s">
-        <v>446</v>
+        <v>271</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -2777,25 +2499,25 @@
       <c r="G10">
         <v>9425213362</v>
       </c>
-      <c r="H10" t="s">
-        <v>43</v>
+      <c r="H10" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="I10" t="s">
-        <v>447</v>
+        <v>272</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -2809,25 +2531,25 @@
       <c r="G11">
         <v>9752005463</v>
       </c>
-      <c r="H11" t="s">
-        <v>36</v>
+      <c r="H11" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="I11" t="s">
-        <v>448</v>
+        <v>273</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -2841,25 +2563,25 @@
       <c r="G12">
         <v>9893332761</v>
       </c>
-      <c r="H12" t="s">
-        <v>50</v>
+      <c r="H12" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="I12" t="s">
-        <v>449</v>
+        <v>274</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -2873,25 +2595,25 @@
       <c r="G13">
         <v>9179084355</v>
       </c>
-      <c r="H13" t="s">
-        <v>54</v>
+      <c r="H13" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="I13" t="s">
-        <v>450</v>
+        <v>275</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -2905,25 +2627,25 @@
       <c r="G14">
         <v>9893882927</v>
       </c>
-      <c r="H14" t="s">
-        <v>58</v>
+      <c r="H14" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="I14" t="s">
-        <v>451</v>
+        <v>276</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -2937,25 +2659,25 @@
       <c r="G15">
         <v>8516065218</v>
       </c>
-      <c r="H15" t="s">
-        <v>61</v>
+      <c r="H15" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="I15" t="s">
-        <v>452</v>
+        <v>277</v>
       </c>
       <c r="J15" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -2969,25 +2691,25 @@
       <c r="G16">
         <v>9479263834</v>
       </c>
-      <c r="H16" t="s">
-        <v>64</v>
+      <c r="H16" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="I16" t="s">
-        <v>453</v>
+        <v>278</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
@@ -3001,25 +2723,25 @@
       <c r="G17">
         <v>7722816993</v>
       </c>
-      <c r="H17" t="s">
-        <v>69</v>
+      <c r="H17" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="I17" t="s">
-        <v>454</v>
+        <v>279</v>
       </c>
       <c r="J17" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -3033,25 +2755,25 @@
       <c r="G18">
         <v>8959687664</v>
       </c>
-      <c r="H18" t="s">
-        <v>73</v>
+      <c r="H18" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="I18" t="s">
-        <v>455</v>
+        <v>280</v>
       </c>
       <c r="J18" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -3065,25 +2787,25 @@
       <c r="G19">
         <v>9806113122</v>
       </c>
-      <c r="H19" t="s">
-        <v>76</v>
+      <c r="H19" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="I19" t="s">
-        <v>456</v>
+        <v>281</v>
       </c>
       <c r="J19" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -3097,25 +2819,25 @@
       <c r="G20">
         <v>8770280483</v>
       </c>
-      <c r="H20" t="s">
-        <v>80</v>
+      <c r="H20" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="I20" t="s">
-        <v>457</v>
+        <v>282</v>
       </c>
       <c r="J20" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -3129,25 +2851,25 @@
       <c r="G21">
         <v>7999445235</v>
       </c>
-      <c r="H21" t="s">
-        <v>83</v>
+      <c r="H21" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="I21" t="s">
-        <v>458</v>
+        <v>283</v>
       </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -3161,25 +2883,25 @@
       <c r="G22">
         <v>9406316097</v>
       </c>
-      <c r="H22" t="s">
-        <v>87</v>
+      <c r="H22" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="I22" t="s">
-        <v>459</v>
+        <v>284</v>
       </c>
       <c r="J22" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
@@ -3193,25 +2915,25 @@
       <c r="G23">
         <v>7770874747</v>
       </c>
-      <c r="H23" t="s">
-        <v>91</v>
+      <c r="H23" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="I23" t="s">
-        <v>460</v>
+        <v>285</v>
       </c>
       <c r="J23" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
@@ -3225,25 +2947,25 @@
       <c r="G24">
         <v>8839876092</v>
       </c>
-      <c r="H24" t="s">
-        <v>95</v>
+      <c r="H24" s="2" t="s">
+        <v>378</v>
       </c>
       <c r="I24" t="s">
-        <v>461</v>
+        <v>286</v>
       </c>
       <c r="J24" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
@@ -3257,25 +2979,25 @@
       <c r="G25">
         <v>9009626213</v>
       </c>
-      <c r="H25" t="s">
-        <v>99</v>
+      <c r="H25" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="I25" t="s">
-        <v>462</v>
+        <v>287</v>
       </c>
       <c r="J25" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
@@ -3289,25 +3011,25 @@
       <c r="G26">
         <v>9685251093</v>
       </c>
-      <c r="H26" t="s">
-        <v>102</v>
+      <c r="H26" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="I26" t="s">
-        <v>463</v>
+        <v>288</v>
       </c>
       <c r="J26" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
@@ -3321,25 +3043,25 @@
       <c r="G27">
         <v>9179245625</v>
       </c>
-      <c r="H27" t="s">
-        <v>105</v>
+      <c r="H27" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="I27" t="s">
-        <v>464</v>
+        <v>289</v>
       </c>
       <c r="J27" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
@@ -3353,25 +3075,25 @@
       <c r="G28">
         <v>9977897267</v>
       </c>
-      <c r="H28" t="s">
-        <v>10</v>
+      <c r="H28" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="I28" t="s">
-        <v>465</v>
+        <v>290</v>
       </c>
       <c r="J28" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -3385,25 +3107,25 @@
       <c r="G29">
         <v>9424270119</v>
       </c>
-      <c r="H29" t="s">
-        <v>111</v>
+      <c r="H29" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="I29" t="s">
-        <v>466</v>
+        <v>291</v>
       </c>
       <c r="J29" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
@@ -3417,25 +3139,25 @@
       <c r="G30">
         <v>8817833873</v>
       </c>
-      <c r="H30" t="s">
-        <v>115</v>
+      <c r="H30" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="I30" t="s">
-        <v>467</v>
+        <v>292</v>
       </c>
       <c r="J30" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
@@ -3449,25 +3171,25 @@
       <c r="G31">
         <v>9039779068</v>
       </c>
-      <c r="H31" t="s">
-        <v>118</v>
+      <c r="H31" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="I31" t="s">
-        <v>468</v>
+        <v>293</v>
       </c>
       <c r="J31" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>342</v>
+        <v>260</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
@@ -3481,25 +3203,25 @@
       <c r="G32">
         <v>7697124554</v>
       </c>
-      <c r="H32" t="s">
-        <v>122</v>
+      <c r="H32" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="I32" t="s">
-        <v>469</v>
+        <v>294</v>
       </c>
       <c r="J32" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -3513,25 +3235,25 @@
       <c r="G33">
         <v>7000506007</v>
       </c>
-      <c r="H33" t="s">
-        <v>126</v>
+      <c r="H33" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="I33" t="s">
-        <v>470</v>
+        <v>295</v>
       </c>
       <c r="J33" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
@@ -3545,25 +3267,25 @@
       <c r="G34">
         <v>8770307916</v>
       </c>
-      <c r="H34" t="s">
-        <v>95</v>
+      <c r="H34" s="2" t="s">
+        <v>378</v>
       </c>
       <c r="I34" t="s">
-        <v>471</v>
+        <v>296</v>
       </c>
       <c r="J34" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
@@ -3577,25 +3299,25 @@
       <c r="G35">
         <v>8109651428</v>
       </c>
-      <c r="H35" t="s">
-        <v>131</v>
+      <c r="H35" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="I35" t="s">
-        <v>472</v>
+        <v>297</v>
       </c>
       <c r="J35" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>343</v>
+        <v>261</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
@@ -3609,25 +3331,25 @@
       <c r="G36">
         <v>6261734608</v>
       </c>
-      <c r="H36" t="s">
-        <v>134</v>
+      <c r="H36" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>473</v>
+        <v>298</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>344</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
@@ -3641,25 +3363,25 @@
       <c r="G37">
         <v>9893824094</v>
       </c>
-      <c r="H37" t="s">
-        <v>137</v>
+      <c r="H37" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="I37" t="s">
-        <v>474</v>
+        <v>299</v>
       </c>
       <c r="J37" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
@@ -3673,25 +3395,25 @@
       <c r="G38">
         <v>7747968215</v>
       </c>
-      <c r="H38" t="s">
-        <v>141</v>
+      <c r="H38" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="I38" t="s">
-        <v>475</v>
+        <v>300</v>
       </c>
       <c r="J38" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
@@ -3705,25 +3427,25 @@
       <c r="G39">
         <v>8959989609</v>
       </c>
-      <c r="H39" t="s">
-        <v>145</v>
+      <c r="H39" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="I39" t="s">
-        <v>476</v>
+        <v>301</v>
       </c>
       <c r="J39" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
@@ -3737,25 +3459,25 @@
       <c r="G40">
         <v>9907347079</v>
       </c>
-      <c r="H40" t="s">
-        <v>149</v>
+      <c r="H40" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="I40" t="s">
-        <v>477</v>
+        <v>302</v>
       </c>
       <c r="J40" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
@@ -3769,25 +3491,25 @@
       <c r="G41">
         <v>9098605762</v>
       </c>
-      <c r="H41" t="s">
-        <v>152</v>
+      <c r="H41" s="2" t="s">
+        <v>393</v>
       </c>
       <c r="I41" t="s">
-        <v>478</v>
+        <v>303</v>
       </c>
       <c r="J41" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
@@ -3801,25 +3523,25 @@
       <c r="G42">
         <v>7974564922</v>
       </c>
-      <c r="H42" t="s">
-        <v>155</v>
+      <c r="H42" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="I42" t="s">
-        <v>479</v>
+        <v>304</v>
       </c>
       <c r="J42" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
@@ -3833,25 +3555,25 @@
       <c r="G43">
         <v>9098650521</v>
       </c>
-      <c r="H43" t="s">
-        <v>159</v>
+      <c r="H43" s="2" t="s">
+        <v>395</v>
       </c>
       <c r="I43" t="s">
-        <v>480</v>
+        <v>305</v>
       </c>
       <c r="J43" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="B44" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
@@ -3865,25 +3587,25 @@
       <c r="G44">
         <v>9713188988</v>
       </c>
-      <c r="H44" t="s">
-        <v>126</v>
+      <c r="H44" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="I44" t="s">
-        <v>481</v>
+        <v>306</v>
       </c>
       <c r="J44" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
@@ -3897,25 +3619,25 @@
       <c r="G45">
         <v>9753621333</v>
       </c>
-      <c r="H45" t="s">
-        <v>91</v>
+      <c r="H45" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="I45" t="s">
-        <v>482</v>
+        <v>307</v>
       </c>
       <c r="J45" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
@@ -3929,25 +3651,25 @@
       <c r="G46">
         <v>8260443042</v>
       </c>
-      <c r="H46" t="s">
-        <v>168</v>
+      <c r="H46" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="I46" t="s">
-        <v>483</v>
+        <v>308</v>
       </c>
       <c r="J46" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
@@ -3961,25 +3683,25 @@
       <c r="G47">
         <v>9753280273</v>
       </c>
-      <c r="H47" t="s">
-        <v>171</v>
+      <c r="H47" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="I47" t="s">
-        <v>484</v>
+        <v>309</v>
       </c>
       <c r="J47" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="B48" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
@@ -3993,25 +3715,25 @@
       <c r="G48">
         <v>7838782725</v>
       </c>
-      <c r="H48" t="s">
-        <v>137</v>
+      <c r="H48" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="I48" t="s">
-        <v>485</v>
+        <v>310</v>
       </c>
       <c r="J48" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
@@ -4025,25 +3747,25 @@
       <c r="G49">
         <v>9713120118</v>
       </c>
-      <c r="H49" t="s">
-        <v>179</v>
+      <c r="H49" s="2" t="s">
+        <v>398</v>
       </c>
       <c r="I49" t="s">
-        <v>486</v>
+        <v>311</v>
       </c>
       <c r="J49" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="B50" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
@@ -4057,25 +3779,25 @@
       <c r="G50">
         <v>7000051755</v>
       </c>
-      <c r="H50" t="s">
-        <v>183</v>
+      <c r="H50" s="2" t="s">
+        <v>399</v>
       </c>
       <c r="I50" t="s">
-        <v>487</v>
+        <v>312</v>
       </c>
       <c r="J50" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
@@ -4089,25 +3811,25 @@
       <c r="G51">
         <v>9691510814</v>
       </c>
-      <c r="H51" t="s">
-        <v>187</v>
+      <c r="H51" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="I51" t="s">
-        <v>488</v>
+        <v>313</v>
       </c>
       <c r="J51" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="B52" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C52" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
@@ -4121,25 +3843,25 @@
       <c r="G52">
         <v>9926684071</v>
       </c>
-      <c r="H52" t="s">
-        <v>191</v>
+      <c r="H52" s="2" t="s">
+        <v>401</v>
       </c>
       <c r="I52" t="s">
-        <v>489</v>
+        <v>314</v>
       </c>
       <c r="J52" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="B53" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="C53" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
@@ -4153,25 +3875,25 @@
       <c r="G53">
         <v>8817090012</v>
       </c>
-      <c r="H53" t="s">
-        <v>195</v>
+      <c r="H53" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="I53" t="s">
-        <v>490</v>
+        <v>315</v>
       </c>
       <c r="J53" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="B54" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="C54" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
@@ -4185,25 +3907,25 @@
       <c r="G54">
         <v>9893644364</v>
       </c>
-      <c r="H54" t="s">
-        <v>122</v>
+      <c r="H54" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="I54" t="s">
-        <v>491</v>
+        <v>316</v>
       </c>
       <c r="J54" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="B55" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="C55" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="D55" t="s">
         <v>3</v>
@@ -4217,25 +3939,25 @@
       <c r="G55">
         <v>7587347336</v>
       </c>
-      <c r="H55" t="s">
-        <v>203</v>
+      <c r="H55" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="I55" t="s">
-        <v>492</v>
+        <v>317</v>
       </c>
       <c r="J55" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="B56" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="D56" t="s">
         <v>3</v>
@@ -4249,25 +3971,25 @@
       <c r="G56">
         <v>9424133466</v>
       </c>
-      <c r="H56" t="s">
-        <v>207</v>
+      <c r="H56" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="I56" t="s">
-        <v>493</v>
+        <v>318</v>
       </c>
       <c r="J56" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="B57" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="C57" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
@@ -4281,25 +4003,25 @@
       <c r="G57">
         <v>7898979561</v>
       </c>
-      <c r="H57" t="s">
-        <v>211</v>
+      <c r="H57" s="2" t="s">
+        <v>405</v>
       </c>
       <c r="I57" t="s">
-        <v>494</v>
+        <v>319</v>
       </c>
       <c r="J57" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="B58" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="C58" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
@@ -4313,25 +4035,25 @@
       <c r="G58">
         <v>9165378039</v>
       </c>
-      <c r="H58" t="s">
-        <v>215</v>
+      <c r="H58" s="2" t="s">
+        <v>406</v>
       </c>
       <c r="I58" t="s">
-        <v>495</v>
+        <v>320</v>
       </c>
       <c r="J58" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="D59" t="s">
         <v>3</v>
@@ -4345,25 +4067,25 @@
       <c r="G59">
         <v>9926624218</v>
       </c>
-      <c r="H59" t="s">
-        <v>218</v>
+      <c r="H59" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="I59" t="s">
-        <v>496</v>
+        <v>321</v>
       </c>
       <c r="J59" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="B60" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="C60" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
@@ -4377,25 +4099,25 @@
       <c r="G60">
         <v>9424226013</v>
       </c>
-      <c r="H60" t="s">
-        <v>222</v>
+      <c r="H60" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="I60" t="s">
-        <v>497</v>
+        <v>322</v>
       </c>
       <c r="J60" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="D61" t="s">
         <v>3</v>
@@ -4409,25 +4131,25 @@
       <c r="G61">
         <v>9009448358</v>
       </c>
-      <c r="H61" t="s">
-        <v>218</v>
+      <c r="H61" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="I61" t="s">
-        <v>498</v>
+        <v>323</v>
       </c>
       <c r="J61" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="D62" t="s">
         <v>3</v>
@@ -4441,25 +4163,25 @@
       <c r="G62">
         <v>9617269000</v>
       </c>
-      <c r="H62" t="s">
-        <v>227</v>
+      <c r="H62" s="2" t="s">
+        <v>409</v>
       </c>
       <c r="I62" t="s">
-        <v>499</v>
+        <v>324</v>
       </c>
       <c r="J62" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="B63" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="C63" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="D63" t="s">
         <v>3</v>
@@ -4473,25 +4195,25 @@
       <c r="G63">
         <v>9826415877</v>
       </c>
-      <c r="H63" t="s">
-        <v>231</v>
+      <c r="H63" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="I63" t="s">
-        <v>500</v>
+        <v>325</v>
       </c>
       <c r="J63" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="B64" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="C64" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="D64" t="s">
         <v>3</v>
@@ -4505,25 +4227,25 @@
       <c r="G64">
         <v>9406202691</v>
       </c>
-      <c r="H64" t="s">
-        <v>235</v>
+      <c r="H64" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="I64" t="s">
-        <v>501</v>
+        <v>326</v>
       </c>
       <c r="J64" t="s">
-        <v>236</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="B65" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="C65" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="D65" t="s">
         <v>3</v>
@@ -4537,25 +4259,25 @@
       <c r="G65">
         <v>9301512485</v>
       </c>
-      <c r="H65" t="s">
-        <v>239</v>
+      <c r="H65" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="I65" t="s">
-        <v>502</v>
+        <v>327</v>
       </c>
       <c r="J65" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="B66" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="C66" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="D66" t="s">
         <v>3</v>
@@ -4569,25 +4291,25 @@
       <c r="G66">
         <v>9617041434</v>
       </c>
-      <c r="H66" t="s">
-        <v>243</v>
+      <c r="H66" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="I66" t="s">
-        <v>503</v>
+        <v>328</v>
       </c>
       <c r="J66" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="B67" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="C67" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="D67" t="s">
         <v>3</v>
@@ -4601,25 +4323,25 @@
       <c r="G67">
         <v>9669651620</v>
       </c>
-      <c r="H67" t="s">
-        <v>247</v>
+      <c r="H67" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="I67" t="s">
-        <v>504</v>
+        <v>329</v>
       </c>
       <c r="J67" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="B68" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="C68" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="D68" t="s">
         <v>3</v>
@@ -4633,25 +4355,25 @@
       <c r="G68">
         <v>8818811999</v>
       </c>
-      <c r="H68" t="s">
-        <v>252</v>
+      <c r="H68" s="2" t="s">
+        <v>415</v>
       </c>
       <c r="I68" t="s">
-        <v>505</v>
+        <v>330</v>
       </c>
       <c r="J68" t="s">
-        <v>253</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="C69" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="D69" t="s">
         <v>3</v>
@@ -4665,25 +4387,25 @@
       <c r="G69">
         <v>9165186652</v>
       </c>
-      <c r="H69" t="s">
-        <v>255</v>
+      <c r="H69" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="I69" t="s">
-        <v>506</v>
+        <v>331</v>
       </c>
       <c r="J69" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="B70" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="C70" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="D70" t="s">
         <v>3</v>
@@ -4697,25 +4419,25 @@
       <c r="G70">
         <v>7225079933</v>
       </c>
-      <c r="H70" t="s">
-        <v>259</v>
+      <c r="H70" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="I70" t="s">
-        <v>507</v>
+        <v>332</v>
       </c>
       <c r="J70" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="B71" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="C71" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="D71" t="s">
         <v>3</v>
@@ -4729,25 +4451,25 @@
       <c r="G71">
         <v>8827885532</v>
       </c>
-      <c r="H71" t="s">
-        <v>263</v>
+      <c r="H71" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="I71" t="s">
-        <v>508</v>
+        <v>333</v>
       </c>
       <c r="J71" t="s">
-        <v>264</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>265</v>
+        <v>202</v>
       </c>
       <c r="B72" t="s">
-        <v>266</v>
+        <v>203</v>
       </c>
       <c r="C72" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="D72" t="s">
         <v>3</v>
@@ -4761,25 +4483,25 @@
       <c r="G72">
         <v>9907985891</v>
       </c>
-      <c r="H72" t="s">
-        <v>218</v>
+      <c r="H72" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="I72" t="s">
-        <v>509</v>
+        <v>334</v>
       </c>
       <c r="J72" t="s">
-        <v>267</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>268</v>
+        <v>205</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="D73" t="s">
         <v>3</v>
@@ -4793,25 +4515,25 @@
       <c r="G73">
         <v>8516019977</v>
       </c>
-      <c r="H73" t="s">
-        <v>134</v>
+      <c r="H73" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="I73" t="s">
-        <v>510</v>
+        <v>335</v>
       </c>
       <c r="J73" t="s">
-        <v>269</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>270</v>
+        <v>207</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="D74" t="s">
         <v>3</v>
@@ -4825,25 +4547,25 @@
       <c r="G74">
         <v>7999471114</v>
       </c>
-      <c r="H74" t="s">
-        <v>271</v>
+      <c r="H74" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="I74" t="s">
-        <v>511</v>
+        <v>336</v>
       </c>
       <c r="J74" t="s">
-        <v>272</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>273</v>
+        <v>209</v>
       </c>
       <c r="B75" t="s">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="C75" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="D75" t="s">
         <v>3</v>
@@ -4857,25 +4579,25 @@
       <c r="G75">
         <v>7694860476</v>
       </c>
-      <c r="H75" t="s">
-        <v>274</v>
+      <c r="H75" s="2" t="s">
+        <v>420</v>
       </c>
       <c r="I75" t="s">
-        <v>512</v>
+        <v>337</v>
       </c>
       <c r="J75" t="s">
-        <v>275</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>276</v>
+        <v>211</v>
       </c>
       <c r="B76" t="s">
-        <v>277</v>
+        <v>212</v>
       </c>
       <c r="C76" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="D76" t="s">
         <v>3</v>
@@ -4889,25 +4611,25 @@
       <c r="G76">
         <v>9752958287</v>
       </c>
-      <c r="H76" t="s">
-        <v>278</v>
+      <c r="H76" s="2" t="s">
+        <v>421</v>
       </c>
       <c r="I76" t="s">
-        <v>513</v>
+        <v>338</v>
       </c>
       <c r="J76" t="s">
-        <v>279</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="C77" t="s">
-        <v>281</v>
+        <v>215</v>
       </c>
       <c r="D77" t="s">
         <v>3</v>
@@ -4921,25 +4643,25 @@
       <c r="G77">
         <v>7999326477</v>
       </c>
-      <c r="H77" t="s">
-        <v>282</v>
+      <c r="H77" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="I77" t="s">
-        <v>514</v>
+        <v>339</v>
       </c>
       <c r="J77" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>284</v>
+        <v>217</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C78" t="s">
-        <v>281</v>
+        <v>215</v>
       </c>
       <c r="D78" t="s">
         <v>3</v>
@@ -4953,25 +4675,25 @@
       <c r="G78">
         <v>8103919821</v>
       </c>
-      <c r="H78" t="s">
-        <v>285</v>
+      <c r="H78" s="2" t="s">
+        <v>423</v>
       </c>
       <c r="I78" t="s">
-        <v>515</v>
+        <v>340</v>
       </c>
       <c r="J78" t="s">
-        <v>286</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>287</v>
+        <v>219</v>
       </c>
       <c r="B79" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C79" t="s">
-        <v>281</v>
+        <v>215</v>
       </c>
       <c r="D79" t="s">
         <v>3</v>
@@ -4985,25 +4707,25 @@
       <c r="G79">
         <v>8269720150</v>
       </c>
-      <c r="H79" t="s">
-        <v>288</v>
+      <c r="H79" s="2" t="s">
+        <v>424</v>
       </c>
       <c r="I79" t="s">
-        <v>516</v>
+        <v>341</v>
       </c>
       <c r="J79" t="s">
-        <v>289</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>290</v>
+        <v>221</v>
       </c>
       <c r="B80" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C80" t="s">
-        <v>281</v>
+        <v>215</v>
       </c>
       <c r="D80" t="s">
         <v>3</v>
@@ -5017,25 +4739,25 @@
       <c r="G80">
         <v>9981300226</v>
       </c>
-      <c r="H80" t="s">
-        <v>291</v>
+      <c r="H80" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="I80" t="s">
-        <v>517</v>
+        <v>342</v>
       </c>
       <c r="J80" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>293</v>
+        <v>223</v>
       </c>
       <c r="B81" t="s">
-        <v>294</v>
+        <v>224</v>
       </c>
       <c r="C81" t="s">
-        <v>295</v>
+        <v>225</v>
       </c>
       <c r="D81" t="s">
         <v>3</v>
@@ -5049,25 +4771,25 @@
       <c r="G81">
         <v>9691618599</v>
       </c>
-      <c r="H81" t="s">
-        <v>296</v>
+      <c r="H81" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="I81" t="s">
-        <v>518</v>
+        <v>343</v>
       </c>
       <c r="J81" t="s">
-        <v>297</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>298</v>
+        <v>227</v>
       </c>
       <c r="B82" t="s">
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>295</v>
+        <v>225</v>
       </c>
       <c r="D82" t="s">
         <v>3</v>
@@ -5081,25 +4803,25 @@
       <c r="G82">
         <v>9893386241</v>
       </c>
-      <c r="H82" t="s">
-        <v>299</v>
+      <c r="H82" s="2" t="s">
+        <v>427</v>
       </c>
       <c r="I82" t="s">
-        <v>519</v>
+        <v>344</v>
       </c>
       <c r="J82" t="s">
-        <v>300</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="B83" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="C83" t="s">
-        <v>295</v>
+        <v>225</v>
       </c>
       <c r="D83" t="s">
         <v>3</v>
@@ -5113,25 +4835,25 @@
       <c r="G83">
         <v>9630714253</v>
       </c>
-      <c r="H83" t="s">
-        <v>303</v>
+      <c r="H83" s="2" t="s">
+        <v>428</v>
       </c>
       <c r="I83" t="s">
-        <v>520</v>
+        <v>345</v>
       </c>
       <c r="J83" t="s">
-        <v>304</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>305</v>
+        <v>232</v>
       </c>
       <c r="B84" t="s">
-        <v>306</v>
+        <v>233</v>
       </c>
       <c r="C84" t="s">
-        <v>295</v>
+        <v>225</v>
       </c>
       <c r="D84" t="s">
         <v>3</v>
@@ -5145,25 +4867,25 @@
       <c r="G84">
         <v>9630995232</v>
       </c>
-      <c r="H84" t="s">
-        <v>307</v>
+      <c r="H84" s="2" t="s">
+        <v>429</v>
       </c>
       <c r="I84" t="s">
-        <v>521</v>
+        <v>346</v>
       </c>
       <c r="J84" t="s">
-        <v>308</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>309</v>
+        <v>235</v>
       </c>
       <c r="B85" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="C85" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="D85" t="s">
         <v>3</v>
@@ -5177,25 +4899,25 @@
       <c r="G85">
         <v>8827257670</v>
       </c>
-      <c r="H85" t="s">
-        <v>311</v>
+      <c r="H85" s="2" t="s">
+        <v>430</v>
       </c>
       <c r="I85" t="s">
-        <v>522</v>
+        <v>347</v>
       </c>
       <c r="J85" t="s">
-        <v>312</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>313</v>
+        <v>238</v>
       </c>
       <c r="B86" t="s">
-        <v>294</v>
+        <v>224</v>
       </c>
       <c r="C86" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="D86" t="s">
         <v>3</v>
@@ -5209,25 +4931,25 @@
       <c r="G86">
         <v>9893531903</v>
       </c>
-      <c r="H86" t="s">
-        <v>314</v>
+      <c r="H86" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="I86" t="s">
-        <v>523</v>
+        <v>348</v>
       </c>
       <c r="J86" t="s">
-        <v>315</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>316</v>
+        <v>240</v>
       </c>
       <c r="B87" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="C87" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
       <c r="D87" t="s">
         <v>3</v>
@@ -5241,25 +4963,25 @@
       <c r="G87">
         <v>9826122648</v>
       </c>
-      <c r="H87" t="s">
-        <v>318</v>
+      <c r="H87" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="I87" t="s">
-        <v>524</v>
+        <v>349</v>
       </c>
       <c r="J87" t="s">
-        <v>319</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B88" t="s">
-        <v>320</v>
+        <v>243</v>
       </c>
       <c r="C88" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
       <c r="D88" t="s">
         <v>3</v>
@@ -5273,25 +4995,25 @@
       <c r="G88">
         <v>9669577117</v>
       </c>
-      <c r="H88" t="s">
-        <v>321</v>
+      <c r="H88" s="2" t="s">
+        <v>433</v>
       </c>
       <c r="I88" t="s">
-        <v>525</v>
+        <v>350</v>
       </c>
       <c r="J88" t="s">
-        <v>322</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>323</v>
+        <v>245</v>
       </c>
       <c r="B89" t="s">
-        <v>324</v>
+        <v>246</v>
       </c>
       <c r="C89" t="s">
-        <v>325</v>
+        <v>247</v>
       </c>
       <c r="D89" t="s">
         <v>3</v>
@@ -5305,25 +5027,25 @@
       <c r="G89">
         <v>8435215592</v>
       </c>
-      <c r="H89" t="s">
-        <v>321</v>
+      <c r="H89" s="2" t="s">
+        <v>433</v>
       </c>
       <c r="I89" t="s">
-        <v>526</v>
+        <v>351</v>
       </c>
       <c r="J89" t="s">
-        <v>326</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>327</v>
+        <v>249</v>
       </c>
       <c r="B90" t="s">
-        <v>328</v>
+        <v>250</v>
       </c>
       <c r="C90" t="s">
-        <v>325</v>
+        <v>247</v>
       </c>
       <c r="D90" t="s">
         <v>3</v>
@@ -5337,25 +5059,25 @@
       <c r="G90">
         <v>9424108311</v>
       </c>
-      <c r="H90" t="s">
-        <v>329</v>
+      <c r="H90" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I90" t="s">
-        <v>527</v>
+        <v>352</v>
       </c>
       <c r="J90" t="s">
-        <v>330</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>331</v>
+        <v>252</v>
       </c>
       <c r="B91" t="s">
-        <v>332</v>
+        <v>253</v>
       </c>
       <c r="C91" t="s">
-        <v>325</v>
+        <v>247</v>
       </c>
       <c r="D91" t="s">
         <v>3</v>
@@ -5369,25 +5091,25 @@
       <c r="G91">
         <v>9993851394</v>
       </c>
-      <c r="H91" t="s">
-        <v>333</v>
+      <c r="H91" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="I91" t="s">
-        <v>528</v>
+        <v>353</v>
       </c>
       <c r="J91" t="s">
-        <v>334</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B92" t="s">
-        <v>335</v>
+        <v>255</v>
       </c>
       <c r="C92" t="s">
-        <v>325</v>
+        <v>247</v>
       </c>
       <c r="D92" t="s">
         <v>3</v>
@@ -5401,25 +5123,25 @@
       <c r="G92">
         <v>9826935078</v>
       </c>
-      <c r="H92" t="s">
-        <v>336</v>
+      <c r="H92" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="I92" t="s">
-        <v>529</v>
+        <v>354</v>
       </c>
       <c r="J92" t="s">
-        <v>337</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>338</v>
+        <v>257</v>
       </c>
       <c r="B93" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="C93" t="s">
-        <v>339</v>
+        <v>258</v>
       </c>
       <c r="D93" t="s">
         <v>3</v>
@@ -5433,14 +5155,14 @@
       <c r="G93">
         <v>9893207828</v>
       </c>
-      <c r="H93" t="s">
-        <v>340</v>
+      <c r="H93" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="I93" t="s">
-        <v>530</v>
+        <v>355</v>
       </c>
       <c r="J93" t="s">
-        <v>341</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -5454,486 +5176,483 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A93"/>
+  <dimension ref="C1:C93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="1" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="2" t="s">
         <v>437</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A36" r:id="rId1" display="mohan.paikra@cg.gov.in"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/E-OFFICE ENC my version.xlsx
+++ b/E-OFFICE ENC my version.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ehrms\eoffice-git\eoffice\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB883CA0-EB8B-4C1B-A4EE-37E1FDAC3016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E-OFFICE ENC 10.01.2025" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="356">
   <si>
     <t>Indrajeet</t>
   </si>
@@ -1083,258 +1089,12 @@
   </si>
   <si>
     <t>bharat.ramteke</t>
-  </si>
-  <si>
-    <t>30/06/2025</t>
-  </si>
-  <si>
-    <t>31/03/2026</t>
-  </si>
-  <si>
-    <t>30/06/2026</t>
-  </si>
-  <si>
-    <t>30/06/2029</t>
-  </si>
-  <si>
-    <t>30/04/2028</t>
-  </si>
-  <si>
-    <t>31/08/2026</t>
-  </si>
-  <si>
-    <t>31/07/2032</t>
-  </si>
-  <si>
-    <t>30/06/2047</t>
-  </si>
-  <si>
-    <t>31/08/2046</t>
-  </si>
-  <si>
-    <t>31/07/2036</t>
-  </si>
-  <si>
-    <t>31/03/2037</t>
-  </si>
-  <si>
-    <t>31/10/2047</t>
-  </si>
-  <si>
-    <t>31/12/2047</t>
-  </si>
-  <si>
-    <t>30/09/2054</t>
-  </si>
-  <si>
-    <t>31/12/2029</t>
-  </si>
-  <si>
-    <t>31/03/2060</t>
-  </si>
-  <si>
-    <t>31/10/2057</t>
-  </si>
-  <si>
-    <t>30/04/2059</t>
-  </si>
-  <si>
-    <t>28/02/2059</t>
-  </si>
-  <si>
-    <t>31/05/2055</t>
-  </si>
-  <si>
-    <t>31/10/2056</t>
-  </si>
-  <si>
-    <t>30/04/2057</t>
-  </si>
-  <si>
-    <t>30/09/2058</t>
-  </si>
-  <si>
-    <t>31/01/2058</t>
-  </si>
-  <si>
-    <t>30/11/2057</t>
-  </si>
-  <si>
-    <t>31/08/2057</t>
-  </si>
-  <si>
-    <t>30/09/2025</t>
-  </si>
-  <si>
-    <t>30/04/2035</t>
-  </si>
-  <si>
-    <t>31/05/2052</t>
-  </si>
-  <si>
-    <t>31/03/2029</t>
-  </si>
-  <si>
-    <t>31/01/2053</t>
-  </si>
-  <si>
-    <t>31/05/2057</t>
-  </si>
-  <si>
-    <t>30/04/2056</t>
-  </si>
-  <si>
-    <t>30/09/2059</t>
-  </si>
-  <si>
-    <t>30/11/2060</t>
-  </si>
-  <si>
-    <t>30/06/2054</t>
-  </si>
-  <si>
-    <t>30/09/2061</t>
-  </si>
-  <si>
-    <t>28/02/2058</t>
-  </si>
-  <si>
-    <t>16/03/1992</t>
-  </si>
-  <si>
-    <t>31/03/2061</t>
-  </si>
-  <si>
-    <t>31/10/2060</t>
-  </si>
-  <si>
-    <t>31/08/2056</t>
-  </si>
-  <si>
-    <t>30/06/2028</t>
-  </si>
-  <si>
-    <t>28/02/2034</t>
-  </si>
-  <si>
-    <t>28/02/2029</t>
-  </si>
-  <si>
-    <t>31/12/2030</t>
-  </si>
-  <si>
-    <t>31/07/2035</t>
-  </si>
-  <si>
-    <t>31/10/2032</t>
-  </si>
-  <si>
-    <t>30/10/2029</t>
-  </si>
-  <si>
-    <t>31/10/2027</t>
-  </si>
-  <si>
-    <t>31/08/2027</t>
-  </si>
-  <si>
-    <t>30/06/2032</t>
-  </si>
-  <si>
-    <t>31/10/2036</t>
-  </si>
-  <si>
-    <t>31/12/2025</t>
-  </si>
-  <si>
-    <t>30/09/2037</t>
-  </si>
-  <si>
-    <t>31/08/2033</t>
-  </si>
-  <si>
-    <t>31/05/2046</t>
-  </si>
-  <si>
-    <t>31/12/2032</t>
-  </si>
-  <si>
-    <t>31/05/2043</t>
-  </si>
-  <si>
-    <t>30/11/2051</t>
-  </si>
-  <si>
-    <t>31/08/2037</t>
-  </si>
-  <si>
-    <t>30/06/2042</t>
-  </si>
-  <si>
-    <t>30/04/2038</t>
-  </si>
-  <si>
-    <t>31/01/2050</t>
-  </si>
-  <si>
-    <t>28/02/2042</t>
-  </si>
-  <si>
-    <t>30/09/2057</t>
-  </si>
-  <si>
-    <t>30/04/2055</t>
-  </si>
-  <si>
-    <t>30/11/2054</t>
-  </si>
-  <si>
-    <t>31/10/2055</t>
-  </si>
-  <si>
-    <t>31/08/2058</t>
-  </si>
-  <si>
-    <t>31/03/2025</t>
-  </si>
-  <si>
-    <t>30/04/2032</t>
-  </si>
-  <si>
-    <t>31/03/2028</t>
-  </si>
-  <si>
-    <t>31/08/2030</t>
-  </si>
-  <si>
-    <t>31/10/2028</t>
-  </si>
-  <si>
-    <t>31/05/2030</t>
-  </si>
-  <si>
-    <t>31/05/2033</t>
-  </si>
-  <si>
-    <t>31/03/2032</t>
-  </si>
-  <si>
-    <t>30/11/2030</t>
-  </si>
-  <si>
-    <t>31/01/2032</t>
-  </si>
-  <si>
-    <t>31/12/2027</t>
-  </si>
-  <si>
-    <t>31/07/2030</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1822,10 +1582,11 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1878,14 +1639,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1923,7 +1687,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1995,7 +1759,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2168,11 +1932,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="A1:J93"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,7 +1948,7 @@
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2211,8 +1975,8 @@
       <c r="G1">
         <v>8319420650</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>356</v>
+      <c r="H1" s="3">
+        <v>45838</v>
       </c>
       <c r="I1" t="s">
         <v>263</v>
@@ -2243,8 +2007,8 @@
       <c r="G2">
         <v>9826414399</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>357</v>
+      <c r="H2" s="3">
+        <v>46112</v>
       </c>
       <c r="I2" t="s">
         <v>264</v>
@@ -2275,8 +2039,8 @@
       <c r="G3">
         <v>9424281778</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>358</v>
+      <c r="H3" s="3">
+        <v>46203</v>
       </c>
       <c r="I3" t="s">
         <v>265</v>
@@ -2307,8 +2071,8 @@
       <c r="G4">
         <v>9425593428</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>359</v>
+      <c r="H4" s="3">
+        <v>47299</v>
       </c>
       <c r="I4" t="s">
         <v>266</v>
@@ -2339,8 +2103,8 @@
       <c r="G5">
         <v>9827115879</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>360</v>
+      <c r="H5" s="3">
+        <v>46873</v>
       </c>
       <c r="I5" t="s">
         <v>267</v>
@@ -2371,8 +2135,8 @@
       <c r="G6">
         <v>9893398244</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>361</v>
+      <c r="H6" s="3">
+        <v>46265</v>
       </c>
       <c r="I6" t="s">
         <v>268</v>
@@ -2403,8 +2167,8 @@
       <c r="G7">
         <v>9340830289</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>362</v>
+      <c r="H7" s="3">
+        <v>48426</v>
       </c>
       <c r="I7" t="s">
         <v>269</v>
@@ -2435,8 +2199,8 @@
       <c r="G8">
         <v>9039811391</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>363</v>
+      <c r="H8" s="3">
+        <v>53873</v>
       </c>
       <c r="I8" t="s">
         <v>270</v>
@@ -2467,8 +2231,8 @@
       <c r="G9">
         <v>9479187678</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>364</v>
+      <c r="H9" s="3">
+        <v>53570</v>
       </c>
       <c r="I9" t="s">
         <v>271</v>
@@ -2499,8 +2263,8 @@
       <c r="G10">
         <v>9425213362</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>365</v>
+      <c r="H10" s="3">
+        <v>49887</v>
       </c>
       <c r="I10" t="s">
         <v>272</v>
@@ -2531,8 +2295,8 @@
       <c r="G11">
         <v>9752005463</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>363</v>
+      <c r="H11" s="3">
+        <v>53873</v>
       </c>
       <c r="I11" t="s">
         <v>273</v>
@@ -2563,8 +2327,8 @@
       <c r="G12">
         <v>9893332761</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>366</v>
+      <c r="H12" s="3">
+        <v>50130</v>
       </c>
       <c r="I12" t="s">
         <v>274</v>
@@ -2595,8 +2359,8 @@
       <c r="G13">
         <v>9179084355</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>367</v>
+      <c r="H13" s="3">
+        <v>53996</v>
       </c>
       <c r="I13" t="s">
         <v>275</v>
@@ -2627,8 +2391,8 @@
       <c r="G14">
         <v>9893882927</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>368</v>
+      <c r="H14" s="3">
+        <v>54057</v>
       </c>
       <c r="I14" t="s">
         <v>276</v>
@@ -2659,8 +2423,8 @@
       <c r="G15">
         <v>8516065218</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>369</v>
+      <c r="H15" s="3">
+        <v>56522</v>
       </c>
       <c r="I15" t="s">
         <v>277</v>
@@ -2691,8 +2455,8 @@
       <c r="G16">
         <v>9479263834</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>370</v>
+      <c r="H16" s="3">
+        <v>47483</v>
       </c>
       <c r="I16" t="s">
         <v>278</v>
@@ -2723,8 +2487,8 @@
       <c r="G17">
         <v>7722816993</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>371</v>
+      <c r="H17" s="3">
+        <v>58531</v>
       </c>
       <c r="I17" t="s">
         <v>279</v>
@@ -2755,8 +2519,8 @@
       <c r="G18">
         <v>8959687664</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>372</v>
+      <c r="H18" s="3">
+        <v>57649</v>
       </c>
       <c r="I18" t="s">
         <v>280</v>
@@ -2787,8 +2551,8 @@
       <c r="G19">
         <v>9806113122</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>373</v>
+      <c r="H19" s="3">
+        <v>58195</v>
       </c>
       <c r="I19" t="s">
         <v>281</v>
@@ -2819,8 +2583,8 @@
       <c r="G20">
         <v>8770280483</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>374</v>
+      <c r="H20" s="3">
+        <v>58134</v>
       </c>
       <c r="I20" t="s">
         <v>282</v>
@@ -2851,8 +2615,8 @@
       <c r="G21">
         <v>7999445235</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>375</v>
+      <c r="H21" s="3">
+        <v>56765</v>
       </c>
       <c r="I21" t="s">
         <v>283</v>
@@ -2883,8 +2647,8 @@
       <c r="G22">
         <v>9406316097</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>376</v>
+      <c r="H22" s="3">
+        <v>57284</v>
       </c>
       <c r="I22" t="s">
         <v>284</v>
@@ -2915,8 +2679,8 @@
       <c r="G23">
         <v>7770874747</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>377</v>
+      <c r="H23" s="3">
+        <v>57465</v>
       </c>
       <c r="I23" t="s">
         <v>285</v>
@@ -2947,8 +2711,8 @@
       <c r="G24">
         <v>8839876092</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>378</v>
+      <c r="H24" s="3">
+        <v>57983</v>
       </c>
       <c r="I24" t="s">
         <v>286</v>
@@ -2979,8 +2743,8 @@
       <c r="G25">
         <v>9009626213</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>379</v>
+      <c r="H25" s="3">
+        <v>57741</v>
       </c>
       <c r="I25" t="s">
         <v>287</v>
@@ -3011,8 +2775,8 @@
       <c r="G26">
         <v>9685251093</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>380</v>
+      <c r="H26" s="3">
+        <v>57679</v>
       </c>
       <c r="I26" t="s">
         <v>288</v>
@@ -3043,8 +2807,8 @@
       <c r="G27">
         <v>9179245625</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>381</v>
+      <c r="H27" s="3">
+        <v>57588</v>
       </c>
       <c r="I27" t="s">
         <v>289</v>
@@ -3075,8 +2839,8 @@
       <c r="G28">
         <v>9977897267</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>357</v>
+      <c r="H28" s="3">
+        <v>46112</v>
       </c>
       <c r="I28" t="s">
         <v>290</v>
@@ -3107,8 +2871,8 @@
       <c r="G29">
         <v>9424270119</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>382</v>
+      <c r="H29" s="3">
+        <v>45930</v>
       </c>
       <c r="I29" t="s">
         <v>291</v>
@@ -3139,8 +2903,8 @@
       <c r="G30">
         <v>8817833873</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>383</v>
+      <c r="H30" s="3">
+        <v>49429</v>
       </c>
       <c r="I30" t="s">
         <v>292</v>
@@ -3171,8 +2935,8 @@
       <c r="G31">
         <v>9039779068</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>384</v>
+      <c r="H31" s="3">
+        <v>55670</v>
       </c>
       <c r="I31" t="s">
         <v>293</v>
@@ -3203,8 +2967,8 @@
       <c r="G32">
         <v>7697124554</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>385</v>
+      <c r="H32" s="3">
+        <v>47208</v>
       </c>
       <c r="I32" t="s">
         <v>294</v>
@@ -3235,8 +2999,8 @@
       <c r="G33">
         <v>7000506007</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>386</v>
+      <c r="H33" s="3">
+        <v>55915</v>
       </c>
       <c r="I33" t="s">
         <v>295</v>
@@ -3267,8 +3031,8 @@
       <c r="G34">
         <v>8770307916</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>378</v>
+      <c r="H34" s="3">
+        <v>57983</v>
       </c>
       <c r="I34" t="s">
         <v>296</v>
@@ -3299,8 +3063,8 @@
       <c r="G35">
         <v>8109651428</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>387</v>
+      <c r="H35" s="3">
+        <v>57496</v>
       </c>
       <c r="I35" t="s">
         <v>297</v>
@@ -3331,8 +3095,8 @@
       <c r="G36">
         <v>6261734608</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>388</v>
+      <c r="H36" s="3">
+        <v>57100</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>298</v>
@@ -3363,8 +3127,8 @@
       <c r="G37">
         <v>9893824094</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>389</v>
+      <c r="H37" s="3">
+        <v>58348</v>
       </c>
       <c r="I37" t="s">
         <v>299</v>
@@ -3395,8 +3159,8 @@
       <c r="G38">
         <v>7747968215</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>390</v>
+      <c r="H38" s="3">
+        <v>58775</v>
       </c>
       <c r="I38" t="s">
         <v>300</v>
@@ -3427,8 +3191,8 @@
       <c r="G39">
         <v>8959989609</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>391</v>
+      <c r="H39" s="3">
+        <v>56430</v>
       </c>
       <c r="I39" t="s">
         <v>301</v>
@@ -3459,8 +3223,8 @@
       <c r="G40">
         <v>9907347079</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>392</v>
+      <c r="H40" s="3">
+        <v>59079</v>
       </c>
       <c r="I40" t="s">
         <v>302</v>
@@ -3491,8 +3255,8 @@
       <c r="G41">
         <v>9098605762</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>393</v>
+      <c r="H41" s="3">
+        <v>57769</v>
       </c>
       <c r="I41" t="s">
         <v>303</v>
@@ -3523,8 +3287,8 @@
       <c r="G42">
         <v>7974564922</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>394</v>
+      <c r="H42" s="3">
+        <v>33679</v>
       </c>
       <c r="I42" t="s">
         <v>304</v>
@@ -3555,8 +3319,8 @@
       <c r="G43">
         <v>9098650521</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>395</v>
+      <c r="H43" s="3">
+        <v>58896</v>
       </c>
       <c r="I43" t="s">
         <v>305</v>
@@ -3587,8 +3351,8 @@
       <c r="G44">
         <v>9713188988</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>386</v>
+      <c r="H44" s="3">
+        <v>55915</v>
       </c>
       <c r="I44" t="s">
         <v>306</v>
@@ -3619,8 +3383,8 @@
       <c r="G45">
         <v>9753621333</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>377</v>
+      <c r="H45" s="3">
+        <v>57465</v>
       </c>
       <c r="I45" t="s">
         <v>307</v>
@@ -3651,8 +3415,8 @@
       <c r="G46">
         <v>8260443042</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>396</v>
+      <c r="H46" s="3">
+        <v>58745</v>
       </c>
       <c r="I46" t="s">
         <v>308</v>
@@ -3683,8 +3447,8 @@
       <c r="G47">
         <v>9753280273</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>397</v>
+      <c r="H47" s="3">
+        <v>57223</v>
       </c>
       <c r="I47" t="s">
         <v>309</v>
@@ -3715,8 +3479,8 @@
       <c r="G48">
         <v>7838782725</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>389</v>
+      <c r="H48" s="3">
+        <v>58348</v>
       </c>
       <c r="I48" t="s">
         <v>310</v>
@@ -3747,8 +3511,8 @@
       <c r="G49">
         <v>9713120118</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>398</v>
+      <c r="H49" s="3">
+        <v>46934</v>
       </c>
       <c r="I49" t="s">
         <v>311</v>
@@ -3779,8 +3543,8 @@
       <c r="G50">
         <v>7000051755</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>399</v>
+      <c r="H50" s="3">
+        <v>49003</v>
       </c>
       <c r="I50" t="s">
         <v>312</v>
@@ -3811,8 +3575,8 @@
       <c r="G51">
         <v>9691510814</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>400</v>
+      <c r="H51" s="3">
+        <v>47177</v>
       </c>
       <c r="I51" t="s">
         <v>313</v>
@@ -3843,8 +3607,8 @@
       <c r="G52">
         <v>9926684071</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>401</v>
+      <c r="H52" s="3">
+        <v>47848</v>
       </c>
       <c r="I52" t="s">
         <v>314</v>
@@ -3875,8 +3639,8 @@
       <c r="G53">
         <v>8817090012</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>402</v>
+      <c r="H53" s="3">
+        <v>49521</v>
       </c>
       <c r="I53" t="s">
         <v>315</v>
@@ -3907,8 +3671,8 @@
       <c r="G54">
         <v>9893644364</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>385</v>
+      <c r="H54" s="3">
+        <v>47208</v>
       </c>
       <c r="I54" t="s">
         <v>316</v>
@@ -3939,8 +3703,8 @@
       <c r="G55">
         <v>7587347336</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>403</v>
+      <c r="H55" s="3">
+        <v>48518</v>
       </c>
       <c r="I55" t="s">
         <v>317</v>
@@ -3971,8 +3735,8 @@
       <c r="G56">
         <v>9424133466</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>404</v>
+      <c r="H56" s="3">
+        <v>47421</v>
       </c>
       <c r="I56" t="s">
         <v>318</v>
@@ -4003,8 +3767,8 @@
       <c r="G57">
         <v>7898979561</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>405</v>
+      <c r="H57" s="3">
+        <v>46691</v>
       </c>
       <c r="I57" t="s">
         <v>319</v>
@@ -4035,8 +3799,8 @@
       <c r="G58">
         <v>9165378039</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>406</v>
+      <c r="H58" s="3">
+        <v>46630</v>
       </c>
       <c r="I58" t="s">
         <v>320</v>
@@ -4067,8 +3831,8 @@
       <c r="G59">
         <v>9926624218</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>407</v>
+      <c r="H59" s="3">
+        <v>48395</v>
       </c>
       <c r="I59" t="s">
         <v>321</v>
@@ -4099,8 +3863,8 @@
       <c r="G60">
         <v>9424226013</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>408</v>
+      <c r="H60" s="3">
+        <v>49979</v>
       </c>
       <c r="I60" t="s">
         <v>322</v>
@@ -4131,8 +3895,8 @@
       <c r="G61">
         <v>9009448358</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>407</v>
+      <c r="H61" s="3">
+        <v>48395</v>
       </c>
       <c r="I61" t="s">
         <v>323</v>
@@ -4163,8 +3927,8 @@
       <c r="G62">
         <v>9617269000</v>
       </c>
-      <c r="H62" s="2" t="s">
-        <v>409</v>
+      <c r="H62" s="3">
+        <v>46022</v>
       </c>
       <c r="I62" t="s">
         <v>324</v>
@@ -4195,8 +3959,8 @@
       <c r="G63">
         <v>9826415877</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>410</v>
+      <c r="H63" s="3">
+        <v>50313</v>
       </c>
       <c r="I63" t="s">
         <v>325</v>
@@ -4227,8 +3991,8 @@
       <c r="G64">
         <v>9406202691</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>411</v>
+      <c r="H64" s="3">
+        <v>48822</v>
       </c>
       <c r="I64" t="s">
         <v>326</v>
@@ -4259,8 +4023,8 @@
       <c r="G65">
         <v>9301512485</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>412</v>
+      <c r="H65" s="3">
+        <v>53478</v>
       </c>
       <c r="I65" t="s">
         <v>327</v>
@@ -4291,8 +4055,8 @@
       <c r="G66">
         <v>9617041434</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>413</v>
+      <c r="H66" s="3">
+        <v>48579</v>
       </c>
       <c r="I66" t="s">
         <v>328</v>
@@ -4323,8 +4087,8 @@
       <c r="G67">
         <v>9669651620</v>
       </c>
-      <c r="H67" s="2" t="s">
-        <v>414</v>
+      <c r="H67" s="3">
+        <v>52382</v>
       </c>
       <c r="I67" t="s">
         <v>329</v>
@@ -4355,8 +4119,8 @@
       <c r="G68">
         <v>8818811999</v>
       </c>
-      <c r="H68" s="2" t="s">
-        <v>415</v>
+      <c r="H68" s="3">
+        <v>55487</v>
       </c>
       <c r="I68" t="s">
         <v>330</v>
@@ -4387,8 +4151,8 @@
       <c r="G69">
         <v>9165186652</v>
       </c>
-      <c r="H69" s="2" t="s">
-        <v>416</v>
+      <c r="H69" s="3">
+        <v>50283</v>
       </c>
       <c r="I69" t="s">
         <v>331</v>
@@ -4419,8 +4183,8 @@
       <c r="G70">
         <v>7225079933</v>
       </c>
-      <c r="H70" s="2" t="s">
-        <v>417</v>
+      <c r="H70" s="3">
+        <v>52047</v>
       </c>
       <c r="I70" t="s">
         <v>332</v>
@@ -4451,8 +4215,8 @@
       <c r="G71">
         <v>8827885532</v>
       </c>
-      <c r="H71" s="2" t="s">
-        <v>418</v>
+      <c r="H71" s="3">
+        <v>50525</v>
       </c>
       <c r="I71" t="s">
         <v>333</v>
@@ -4483,8 +4247,8 @@
       <c r="G72">
         <v>9907985891</v>
       </c>
-      <c r="H72" s="2" t="s">
-        <v>407</v>
+      <c r="H72" s="3">
+        <v>48395</v>
       </c>
       <c r="I72" t="s">
         <v>334</v>
@@ -4515,8 +4279,8 @@
       <c r="G73">
         <v>8516019977</v>
       </c>
-      <c r="H73" s="2" t="s">
-        <v>388</v>
+      <c r="H73" s="3">
+        <v>57100</v>
       </c>
       <c r="I73" t="s">
         <v>335</v>
@@ -4547,8 +4311,8 @@
       <c r="G74">
         <v>7999471114</v>
       </c>
-      <c r="H74" s="2" t="s">
-        <v>419</v>
+      <c r="H74" s="3">
+        <v>54819</v>
       </c>
       <c r="I74" t="s">
         <v>336</v>
@@ -4579,8 +4343,8 @@
       <c r="G75">
         <v>7694860476</v>
       </c>
-      <c r="H75" s="2" t="s">
-        <v>420</v>
+      <c r="H75" s="3">
+        <v>51925</v>
       </c>
       <c r="I75" t="s">
         <v>337</v>
@@ -4611,8 +4375,8 @@
       <c r="G76">
         <v>9752958287</v>
       </c>
-      <c r="H76" s="2" t="s">
-        <v>421</v>
+      <c r="H76" s="3">
+        <v>57618</v>
       </c>
       <c r="I76" t="s">
         <v>338</v>
@@ -4643,8 +4407,8 @@
       <c r="G77">
         <v>7999326477</v>
       </c>
-      <c r="H77" s="2" t="s">
-        <v>422</v>
+      <c r="H77" s="3">
+        <v>56734</v>
       </c>
       <c r="I77" t="s">
         <v>339</v>
@@ -4675,8 +4439,8 @@
       <c r="G78">
         <v>8103919821</v>
       </c>
-      <c r="H78" s="2" t="s">
-        <v>423</v>
+      <c r="H78" s="3">
+        <v>56583</v>
       </c>
       <c r="I78" t="s">
         <v>340</v>
@@ -4707,8 +4471,8 @@
       <c r="G79">
         <v>8269720150</v>
       </c>
-      <c r="H79" s="2" t="s">
-        <v>424</v>
+      <c r="H79" s="3">
+        <v>56918</v>
       </c>
       <c r="I79" t="s">
         <v>341</v>
@@ -4739,8 +4503,8 @@
       <c r="G80">
         <v>9981300226</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>425</v>
+      <c r="H80" s="3">
+        <v>57953</v>
       </c>
       <c r="I80" t="s">
         <v>342</v>
@@ -4771,8 +4535,8 @@
       <c r="G81">
         <v>9691618599</v>
       </c>
-      <c r="H81" s="2" t="s">
-        <v>426</v>
+      <c r="H81" s="3">
+        <v>45747</v>
       </c>
       <c r="I81" t="s">
         <v>343</v>
@@ -4803,8 +4567,8 @@
       <c r="G82">
         <v>9893386241</v>
       </c>
-      <c r="H82" s="2" t="s">
-        <v>427</v>
+      <c r="H82" s="3">
+        <v>48334</v>
       </c>
       <c r="I82" t="s">
         <v>344</v>
@@ -4835,8 +4599,8 @@
       <c r="G83">
         <v>9630714253</v>
       </c>
-      <c r="H83" s="2" t="s">
-        <v>428</v>
+      <c r="H83" s="3">
+        <v>46843</v>
       </c>
       <c r="I83" t="s">
         <v>345</v>
@@ -4867,8 +4631,8 @@
       <c r="G84">
         <v>9630995232</v>
       </c>
-      <c r="H84" s="2" t="s">
-        <v>429</v>
+      <c r="H84" s="3">
+        <v>47726</v>
       </c>
       <c r="I84" t="s">
         <v>346</v>
@@ -4899,8 +4663,8 @@
       <c r="G85">
         <v>8827257670</v>
       </c>
-      <c r="H85" s="2" t="s">
-        <v>430</v>
+      <c r="H85" s="3">
+        <v>47057</v>
       </c>
       <c r="I85" t="s">
         <v>347</v>
@@ -4931,8 +4695,8 @@
       <c r="G86">
         <v>9893531903</v>
       </c>
-      <c r="H86" s="2" t="s">
-        <v>431</v>
+      <c r="H86" s="3">
+        <v>47634</v>
       </c>
       <c r="I86" t="s">
         <v>348</v>
@@ -4963,8 +4727,8 @@
       <c r="G87">
         <v>9826122648</v>
       </c>
-      <c r="H87" s="2" t="s">
-        <v>432</v>
+      <c r="H87" s="3">
+        <v>48730</v>
       </c>
       <c r="I87" t="s">
         <v>349</v>
@@ -4995,8 +4759,8 @@
       <c r="G88">
         <v>9669577117</v>
       </c>
-      <c r="H88" s="2" t="s">
-        <v>433</v>
+      <c r="H88" s="3">
+        <v>48304</v>
       </c>
       <c r="I88" t="s">
         <v>350</v>
@@ -5027,8 +4791,8 @@
       <c r="G89">
         <v>8435215592</v>
       </c>
-      <c r="H89" s="2" t="s">
-        <v>433</v>
+      <c r="H89" s="3">
+        <v>48304</v>
       </c>
       <c r="I89" t="s">
         <v>351</v>
@@ -5059,8 +4823,8 @@
       <c r="G90">
         <v>9424108311</v>
       </c>
-      <c r="H90" s="2" t="s">
-        <v>434</v>
+      <c r="H90" s="3">
+        <v>47817</v>
       </c>
       <c r="I90" t="s">
         <v>352</v>
@@ -5091,8 +4855,8 @@
       <c r="G91">
         <v>9993851394</v>
       </c>
-      <c r="H91" s="2" t="s">
-        <v>435</v>
+      <c r="H91" s="3">
+        <v>48244</v>
       </c>
       <c r="I91" t="s">
         <v>353</v>
@@ -5123,8 +4887,8 @@
       <c r="G92">
         <v>9826935078</v>
       </c>
-      <c r="H92" s="2" t="s">
-        <v>436</v>
+      <c r="H92" s="3">
+        <v>46752</v>
       </c>
       <c r="I92" t="s">
         <v>354</v>
@@ -5155,8 +4919,8 @@
       <c r="G93">
         <v>9893207828</v>
       </c>
-      <c r="H93" s="2" t="s">
-        <v>437</v>
+      <c r="H93" s="3">
+        <v>47695</v>
       </c>
       <c r="I93" t="s">
         <v>355</v>
@@ -5167,15 +4931,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J36" r:id="rId1"/>
-    <hyperlink ref="I36" r:id="rId2" display="mohan.paikra@cg.gov.in"/>
+    <hyperlink ref="J36" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I36" r:id="rId2" display="mohan.paikra@cg.gov.in" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:C93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5184,472 +4948,472 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
-        <v>356</v>
+      <c r="C1" s="3">
+        <v>45838</v>
       </c>
     </row>
     <row r="2" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
-        <v>357</v>
+      <c r="C2" s="3">
+        <v>46112</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
-        <v>358</v>
+      <c r="C3" s="3">
+        <v>46203</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
-        <v>359</v>
+      <c r="C4" s="3">
+        <v>47299</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
-        <v>360</v>
+      <c r="C5" s="3">
+        <v>46873</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
-        <v>361</v>
+      <c r="C6" s="3">
+        <v>46265</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
-        <v>362</v>
+      <c r="C7" s="3">
+        <v>48426</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
-        <v>363</v>
+      <c r="C8" s="3">
+        <v>53873</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
-        <v>364</v>
+      <c r="C9" s="3">
+        <v>53570</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
-        <v>365</v>
+      <c r="C10" s="3">
+        <v>49887</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
-        <v>363</v>
+      <c r="C11" s="3">
+        <v>53873</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
-        <v>366</v>
+      <c r="C12" s="3">
+        <v>50130</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
-        <v>367</v>
+      <c r="C13" s="3">
+        <v>53996</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
-        <v>368</v>
+      <c r="C14" s="3">
+        <v>54057</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
-        <v>369</v>
+      <c r="C15" s="3">
+        <v>56522</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
-        <v>370</v>
+      <c r="C16" s="3">
+        <v>47483</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
-        <v>371</v>
+      <c r="C17" s="3">
+        <v>58531</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="2" t="s">
-        <v>372</v>
+      <c r="C18" s="3">
+        <v>57649</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
-        <v>373</v>
+      <c r="C19" s="3">
+        <v>58195</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
-        <v>374</v>
+      <c r="C20" s="3">
+        <v>58134</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="2" t="s">
-        <v>375</v>
+      <c r="C21" s="3">
+        <v>56765</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
-        <v>376</v>
+      <c r="C22" s="3">
+        <v>57284</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
-        <v>377</v>
+      <c r="C23" s="3">
+        <v>57465</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="2" t="s">
-        <v>378</v>
+      <c r="C24" s="3">
+        <v>57983</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="2" t="s">
-        <v>379</v>
+      <c r="C25" s="3">
+        <v>57741</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="2" t="s">
-        <v>380</v>
+      <c r="C26" s="3">
+        <v>57679</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="2" t="s">
-        <v>381</v>
+      <c r="C27" s="3">
+        <v>57588</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
-        <v>357</v>
+      <c r="C28" s="3">
+        <v>46112</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="2" t="s">
-        <v>382</v>
+      <c r="C29" s="3">
+        <v>45930</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="2" t="s">
-        <v>383</v>
+      <c r="C30" s="3">
+        <v>49429</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="2" t="s">
-        <v>384</v>
+      <c r="C31" s="3">
+        <v>55670</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="2" t="s">
-        <v>385</v>
+      <c r="C32" s="3">
+        <v>47208</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="2" t="s">
-        <v>386</v>
+      <c r="C33" s="3">
+        <v>55915</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="2" t="s">
-        <v>378</v>
+      <c r="C34" s="3">
+        <v>57983</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="2" t="s">
-        <v>387</v>
+      <c r="C35" s="3">
+        <v>57496</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="2" t="s">
-        <v>388</v>
+      <c r="C36" s="3">
+        <v>57100</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="2" t="s">
-        <v>389</v>
+      <c r="C37" s="3">
+        <v>58348</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="2" t="s">
-        <v>390</v>
+      <c r="C38" s="3">
+        <v>58775</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="2" t="s">
-        <v>391</v>
+      <c r="C39" s="3">
+        <v>56430</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="2" t="s">
-        <v>392</v>
+      <c r="C40" s="3">
+        <v>59079</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="2" t="s">
-        <v>393</v>
+      <c r="C41" s="3">
+        <v>57769</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="2" t="s">
-        <v>394</v>
+      <c r="C42" s="3">
+        <v>33679</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="2" t="s">
-        <v>395</v>
+      <c r="C43" s="3">
+        <v>58896</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="2" t="s">
-        <v>386</v>
+      <c r="C44" s="3">
+        <v>55915</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="2" t="s">
-        <v>377</v>
+      <c r="C45" s="3">
+        <v>57465</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="2" t="s">
-        <v>396</v>
+      <c r="C46" s="3">
+        <v>58745</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="2" t="s">
-        <v>397</v>
+      <c r="C47" s="3">
+        <v>57223</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="2" t="s">
-        <v>389</v>
+      <c r="C48" s="3">
+        <v>58348</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="2" t="s">
-        <v>398</v>
+      <c r="C49" s="3">
+        <v>46934</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="2" t="s">
-        <v>399</v>
+      <c r="C50" s="3">
+        <v>49003</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="2" t="s">
-        <v>400</v>
+      <c r="C51" s="3">
+        <v>47177</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="2" t="s">
-        <v>401</v>
+      <c r="C52" s="3">
+        <v>47848</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="2" t="s">
-        <v>402</v>
+      <c r="C53" s="3">
+        <v>49521</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="2" t="s">
-        <v>385</v>
+      <c r="C54" s="3">
+        <v>47208</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="2" t="s">
-        <v>403</v>
+      <c r="C55" s="3">
+        <v>48518</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="2" t="s">
-        <v>404</v>
+      <c r="C56" s="3">
+        <v>47421</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="2" t="s">
-        <v>405</v>
+      <c r="C57" s="3">
+        <v>46691</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="2" t="s">
-        <v>406</v>
+      <c r="C58" s="3">
+        <v>46630</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="2" t="s">
-        <v>407</v>
+      <c r="C59" s="3">
+        <v>48395</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="2" t="s">
-        <v>408</v>
+      <c r="C60" s="3">
+        <v>49979</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="2" t="s">
-        <v>407</v>
+      <c r="C61" s="3">
+        <v>48395</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="2" t="s">
-        <v>409</v>
+      <c r="C62" s="3">
+        <v>46022</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="2" t="s">
-        <v>410</v>
+      <c r="C63" s="3">
+        <v>50313</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="2" t="s">
-        <v>411</v>
+      <c r="C64" s="3">
+        <v>48822</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="2" t="s">
-        <v>412</v>
+      <c r="C65" s="3">
+        <v>53478</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="2" t="s">
-        <v>413</v>
+      <c r="C66" s="3">
+        <v>48579</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="2" t="s">
-        <v>414</v>
+      <c r="C67" s="3">
+        <v>52382</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="2" t="s">
-        <v>415</v>
+      <c r="C68" s="3">
+        <v>55487</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="2" t="s">
-        <v>416</v>
+      <c r="C69" s="3">
+        <v>50283</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="2" t="s">
-        <v>417</v>
+      <c r="C70" s="3">
+        <v>52047</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="2" t="s">
-        <v>418</v>
+      <c r="C71" s="3">
+        <v>50525</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="2" t="s">
-        <v>407</v>
+      <c r="C72" s="3">
+        <v>48395</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="2" t="s">
-        <v>388</v>
+      <c r="C73" s="3">
+        <v>57100</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="2" t="s">
-        <v>419</v>
+      <c r="C74" s="3">
+        <v>54819</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="2" t="s">
-        <v>420</v>
+      <c r="C75" s="3">
+        <v>51925</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="2" t="s">
-        <v>421</v>
+      <c r="C76" s="3">
+        <v>57618</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="2" t="s">
-        <v>422</v>
+      <c r="C77" s="3">
+        <v>56734</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78" s="2" t="s">
-        <v>423</v>
+      <c r="C78" s="3">
+        <v>56583</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79" s="2" t="s">
-        <v>424</v>
+      <c r="C79" s="3">
+        <v>56918</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C80" s="2" t="s">
-        <v>425</v>
+      <c r="C80" s="3">
+        <v>57953</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="2" t="s">
-        <v>426</v>
+      <c r="C81" s="3">
+        <v>45747</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="2" t="s">
-        <v>427</v>
+      <c r="C82" s="3">
+        <v>48334</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="2" t="s">
-        <v>428</v>
+      <c r="C83" s="3">
+        <v>46843</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="2" t="s">
-        <v>429</v>
+      <c r="C84" s="3">
+        <v>47726</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" s="2" t="s">
-        <v>430</v>
+      <c r="C85" s="3">
+        <v>47057</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="2" t="s">
-        <v>431</v>
+      <c r="C86" s="3">
+        <v>47634</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87" s="2" t="s">
-        <v>432</v>
+      <c r="C87" s="3">
+        <v>48730</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88" s="2" t="s">
-        <v>433</v>
+      <c r="C88" s="3">
+        <v>48304</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89" s="2" t="s">
-        <v>433</v>
+      <c r="C89" s="3">
+        <v>48304</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90" s="2" t="s">
-        <v>434</v>
+      <c r="C90" s="3">
+        <v>47817</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="2" t="s">
-        <v>435</v>
+      <c r="C91" s="3">
+        <v>48244</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C92" s="2" t="s">
-        <v>436</v>
+      <c r="C92" s="3">
+        <v>46752</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="2" t="s">
-        <v>437</v>
+      <c r="C93" s="3">
+        <v>47695</v>
       </c>
     </row>
   </sheetData>
